--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_22.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77865CD8-AC77-5643-9C92-E4962421B654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFC6FAA-C500-B14C-8F18-D9AD6FFCDA32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{F6DB703D-4BA3-0941-B770-9CABC980AD7B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="91">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -265,6 +265,48 @@
   </si>
   <si>
     <t>The termination of life as a result of an adverse event. (NCI)</t>
+  </si>
+  <si>
+    <t>SC78728</t>
+  </si>
+  <si>
+    <t>MULTIPLE</t>
+  </si>
+  <si>
+    <t>Many; Several</t>
+  </si>
+  <si>
+    <t>More than one. (NCI)</t>
+  </si>
+  <si>
+    <t>C17998</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>U; Unknown</t>
+  </si>
+  <si>
+    <t>Not known, not observed, not recorded, or refused. (NCI)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>C48660</t>
+  </si>
+  <si>
+    <t>NOT APPLICABLE</t>
+  </si>
+  <si>
+    <t>NA; Not Applicable</t>
+  </si>
+  <si>
+    <t>Determination of a value is not relevant in the current context. (NCI)</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -617,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74CD0E8-C023-4F4F-BD4C-E89EC534F9F7}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -734,7 +776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -787,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -840,7 +882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -893,7 +935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -948,155 +990,161 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1">
+        <v>6</v>
+      </c>
       <c r="N7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7</v>
+      </c>
       <c r="N8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O8" t="s">
         <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="M9" s="1">
+        <v>8</v>
+      </c>
       <c r="N9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O9" t="s">
         <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -1116,19 +1164,19 @@
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
         <v>48</v>
@@ -1138,7 +1186,7 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O10" t="s">
         <v>29</v>
@@ -1167,19 +1215,19 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="J11" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
         <v>48</v>
@@ -1189,7 +1237,7 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
         <v>29</v>
@@ -1198,6 +1246,159 @@
         <v>46</v>
       </c>
       <c r="Q11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
         <v>46</v>
       </c>
     </row>
